--- a/ChurnedCompaniesWithCallsAndTicketsUpdated.xlsx
+++ b/ChurnedCompaniesWithCallsAndTicketsUpdated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="303">
   <si>
     <t>Company_Name</t>
   </si>
@@ -655,6 +655,156 @@
     <t>IMMENSO CONSULT A/S</t>
   </si>
   <si>
+    <t>A/S MOGENS FREDERIKSEN AUTOMOBILER</t>
+  </si>
+  <si>
+    <t>RENGØRINGSSELSKABET DRIFT APS</t>
+  </si>
+  <si>
+    <t>SAMSØE &amp; SAMSØE WHOLE SALE APS</t>
+  </si>
+  <si>
+    <t>AJ VACCINES A/S</t>
+  </si>
+  <si>
+    <t>MICKI LEKSAKER AB</t>
+  </si>
+  <si>
+    <t>COPENHAGEN INFRASTRUCTURE SERVICE COMPANY APS</t>
+  </si>
+  <si>
+    <t>TAURUS EJENDOMSADMINISTRATION APS</t>
+  </si>
+  <si>
+    <t>NNIT A/S</t>
+  </si>
+  <si>
+    <t>PROTECTOR FORSIKRING DANMARK, FILIAL AF PROTECTOR FORSIKRING ASA, NORGE</t>
+  </si>
+  <si>
+    <t>REJSEKORT &amp; REJSEPLAN A/S</t>
+  </si>
+  <si>
+    <t>SANTANDER CONSUMER BANK, FILIAL AF SANTANDER CONSUMER BANK AS, NORGE</t>
+  </si>
+  <si>
+    <t>GULDAGER A/S</t>
+  </si>
+  <si>
+    <t>BP SOENDERGAARD A/S</t>
+  </si>
+  <si>
+    <t>RVV A.M.B.A.</t>
+  </si>
+  <si>
+    <t>ASAPACK A/S</t>
+  </si>
+  <si>
+    <t>ROCHE INNOVATION CENTER COPENHAGEN A/S</t>
+  </si>
+  <si>
+    <t>MUJI DENMARK APS</t>
+  </si>
+  <si>
+    <t>KECON A/S</t>
+  </si>
+  <si>
+    <t>BAM DANMARK A/S</t>
+  </si>
+  <si>
+    <t>FONDET FOR DANSK-NORSK SAMARBEJDE SCHÆFFERGÅRDEN</t>
+  </si>
+  <si>
+    <t>AFRY APS</t>
+  </si>
+  <si>
+    <t>BRANDE BUSLINIER APS</t>
+  </si>
+  <si>
+    <t>ORGANON DENMARK APS</t>
+  </si>
+  <si>
+    <t>2020 SUPERIOR A/S</t>
+  </si>
+  <si>
+    <t>NINE UNITED SCANDINAVIA A/S</t>
+  </si>
+  <si>
+    <t>IPTOR DENMARK A/S</t>
+  </si>
+  <si>
+    <t>NIELSEN CAR GROUP A/S</t>
+  </si>
+  <si>
+    <t>ALMAS KORN A/S</t>
+  </si>
+  <si>
+    <t>BIANCO FOOTWEAR A/S</t>
+  </si>
+  <si>
+    <t>VISBJERGGÅRDEN A/S</t>
+  </si>
+  <si>
+    <t>BECH-BRUUN ADVOKATPARTNERSELSKAB</t>
+  </si>
+  <si>
+    <t>GROUP ONLINE A/S</t>
+  </si>
+  <si>
+    <t>BLUE HORS APS</t>
+  </si>
+  <si>
+    <t>NORTH MEDIA A/S</t>
+  </si>
+  <si>
+    <t>EF EDUCATION A/S</t>
+  </si>
+  <si>
+    <t>LEICA GEOSYSTEMS TECHNOLOGY A/S</t>
+  </si>
+  <si>
+    <t>DANSK ENERGI MANAGEMENT A/S</t>
+  </si>
+  <si>
+    <t>IVECO DANMARK A/S</t>
+  </si>
+  <si>
+    <t>ESPRIT DE CORP. DANMARK A/S</t>
+  </si>
+  <si>
+    <t>HENNING IBSEN A/S</t>
+  </si>
+  <si>
+    <t>ADVENT TECHNOLOGIES A/S</t>
+  </si>
+  <si>
+    <t>SABRO A/S</t>
+  </si>
+  <si>
+    <t>KYNDRYL DANMARK APS</t>
+  </si>
+  <si>
+    <t>PHOENIX X A/S</t>
+  </si>
+  <si>
+    <t>EPINION P/S</t>
+  </si>
+  <si>
+    <t>GEOPARTNER LANDINSPEKTØRER A/S</t>
+  </si>
+  <si>
+    <t>LØNMODTAGERNES DYRTIDSFOND</t>
+  </si>
+  <si>
+    <t>JESPERS TORVEKØKKEN APS</t>
+  </si>
+  <si>
+    <t>BLUJAY SOLUTIONS A/S</t>
+  </si>
+  <si>
+    <t>SOL OG STRAND FERIEHUSUDLEJNING A/S</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -755,6 +905,24 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1473,7 +1641,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1555,7 +1723,7 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1599,7 +1767,7 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -1813,7 +1981,7 @@
         <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1835,7 +2003,7 @@
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1846,7 +2014,7 @@
         <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1931,7 +2099,7 @@
         <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1964,7 +2132,7 @@
         <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1986,7 +2154,7 @@
         <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2216,7 +2384,7 @@
         <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2260,7 +2428,7 @@
         <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2345,7 +2513,7 @@
         <v>91</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C117">
         <v>8</v>
@@ -2356,7 +2524,7 @@
         <v>91</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C118">
         <v>8</v>
@@ -2367,7 +2535,7 @@
         <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2408,7 +2576,7 @@
         <v>95</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="C123">
         <v>277</v>
@@ -2441,7 +2609,7 @@
         <v>98</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2479,7 +2647,7 @@
         <v>100</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2520,7 +2688,7 @@
         <v>103</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C134">
         <v>1161</v>
@@ -2594,7 +2762,7 @@
         <v>109</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2613,7 +2781,7 @@
         <v>110</v>
       </c>
       <c r="B143" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2657,7 +2825,7 @@
         <v>113</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2668,7 +2836,7 @@
         <v>114</v>
       </c>
       <c r="B148" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2679,7 +2847,7 @@
         <v>115</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2731,7 +2899,7 @@
         <v>118</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2742,7 +2910,7 @@
         <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2805,7 +2973,7 @@
         <v>124</v>
       </c>
       <c r="B161" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2835,7 +3003,7 @@
         <v>126</v>
       </c>
       <c r="B164" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2857,7 +3025,7 @@
         <v>128</v>
       </c>
       <c r="B166" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2868,7 +3036,7 @@
         <v>129</v>
       </c>
       <c r="B167" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C167">
         <v>52</v>
@@ -2879,7 +3047,7 @@
         <v>130</v>
       </c>
       <c r="B168" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2890,7 +3058,7 @@
         <v>131</v>
       </c>
       <c r="B169" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2923,7 +3091,7 @@
         <v>134</v>
       </c>
       <c r="B172" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C172">
         <v>123</v>
@@ -2956,7 +3124,7 @@
         <v>137</v>
       </c>
       <c r="B175" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="C175">
         <v>213</v>
@@ -2975,7 +3143,7 @@
         <v>138</v>
       </c>
       <c r="B177" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -2986,7 +3154,7 @@
         <v>139</v>
       </c>
       <c r="B178" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -2997,7 +3165,7 @@
         <v>139</v>
       </c>
       <c r="B179" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3008,7 +3176,7 @@
         <v>139</v>
       </c>
       <c r="B180" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3019,7 +3187,7 @@
         <v>140</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3052,7 +3220,7 @@
         <v>143</v>
       </c>
       <c r="B184" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3074,7 +3242,7 @@
         <v>145</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C186">
         <v>155</v>
@@ -3129,7 +3297,7 @@
         <v>149</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3162,7 +3330,7 @@
         <v>152</v>
       </c>
       <c r="B194" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3184,7 +3352,7 @@
         <v>154</v>
       </c>
       <c r="B196" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3195,7 +3363,7 @@
         <v>155</v>
       </c>
       <c r="B197" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C197">
         <v>42</v>
@@ -3206,7 +3374,7 @@
         <v>156</v>
       </c>
       <c r="B198" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3217,7 +3385,7 @@
         <v>156</v>
       </c>
       <c r="B199" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3228,7 +3396,7 @@
         <v>157</v>
       </c>
       <c r="B200" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3247,7 +3415,7 @@
         <v>158</v>
       </c>
       <c r="B202" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3258,7 +3426,7 @@
         <v>159</v>
       </c>
       <c r="B203" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3280,7 +3448,7 @@
         <v>161</v>
       </c>
       <c r="B205" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3291,7 +3459,7 @@
         <v>162</v>
       </c>
       <c r="B206" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3321,7 +3489,7 @@
         <v>164</v>
       </c>
       <c r="B209" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3343,7 +3511,7 @@
         <v>165</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C211">
         <v>66</v>
@@ -3354,7 +3522,7 @@
         <v>166</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3376,7 +3544,7 @@
         <v>168</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3387,7 +3555,7 @@
         <v>169</v>
       </c>
       <c r="B215" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3398,7 +3566,7 @@
         <v>170</v>
       </c>
       <c r="B216" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -3409,7 +3577,7 @@
         <v>170</v>
       </c>
       <c r="B217" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -3420,7 +3588,7 @@
         <v>171</v>
       </c>
       <c r="B218" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -3431,7 +3599,7 @@
         <v>171</v>
       </c>
       <c r="B219" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -3442,7 +3610,7 @@
         <v>171</v>
       </c>
       <c r="B220" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -3453,7 +3621,7 @@
         <v>38</v>
       </c>
       <c r="B221" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="C221">
         <v>16</v>
@@ -3464,7 +3632,7 @@
         <v>172</v>
       </c>
       <c r="B222" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3475,7 +3643,7 @@
         <v>173</v>
       </c>
       <c r="B223" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3486,7 +3654,7 @@
         <v>174</v>
       </c>
       <c r="B224" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3497,7 +3665,7 @@
         <v>175</v>
       </c>
       <c r="B225" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -3568,7 +3736,7 @@
         <v>180</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3579,7 +3747,7 @@
         <v>181</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -3590,7 +3758,7 @@
         <v>181</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -3601,7 +3769,7 @@
         <v>182</v>
       </c>
       <c r="B235" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -3612,7 +3780,7 @@
         <v>183</v>
       </c>
       <c r="B236" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -3645,7 +3813,7 @@
         <v>186</v>
       </c>
       <c r="B239" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C239">
         <v>190</v>
@@ -3656,7 +3824,7 @@
         <v>187</v>
       </c>
       <c r="B240" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3667,7 +3835,7 @@
         <v>187</v>
       </c>
       <c r="B241" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3678,7 +3846,7 @@
         <v>188</v>
       </c>
       <c r="B242" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3689,7 +3857,7 @@
         <v>189</v>
       </c>
       <c r="B243" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C243">
         <v>70</v>
@@ -3700,7 +3868,7 @@
         <v>189</v>
       </c>
       <c r="B244" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="C244">
         <v>70</v>
@@ -3722,7 +3890,7 @@
         <v>191</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -3733,7 +3901,7 @@
         <v>192</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -3755,7 +3923,7 @@
         <v>194</v>
       </c>
       <c r="B249" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -3774,7 +3942,7 @@
         <v>195</v>
       </c>
       <c r="B251" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -3785,7 +3953,7 @@
         <v>196</v>
       </c>
       <c r="B252" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -3818,7 +3986,7 @@
         <v>199</v>
       </c>
       <c r="B255" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -3837,7 +4005,7 @@
         <v>200</v>
       </c>
       <c r="B257" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -3848,7 +4016,7 @@
         <v>200</v>
       </c>
       <c r="B258" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -3870,7 +4038,7 @@
         <v>202</v>
       </c>
       <c r="B260" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -3911,7 +4079,7 @@
         <v>205</v>
       </c>
       <c r="B264" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -3922,7 +4090,7 @@
         <v>206</v>
       </c>
       <c r="B265" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -3933,7 +4101,7 @@
         <v>207</v>
       </c>
       <c r="B266" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="C266">
         <v>0</v>
@@ -3944,7 +4112,7 @@
         <v>208</v>
       </c>
       <c r="B267" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -3955,7 +4123,7 @@
         <v>209</v>
       </c>
       <c r="B268" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -3966,7 +4134,7 @@
         <v>209</v>
       </c>
       <c r="B269" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -3977,7 +4145,7 @@
         <v>210</v>
       </c>
       <c r="B270" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4007,9 +4175,778 @@
         <v>212</v>
       </c>
       <c r="B273" t="s">
+        <v>264</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>213</v>
+      </c>
+      <c r="B274" t="s">
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
         <v>214</v>
       </c>
-      <c r="C273">
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>215</v>
+      </c>
+      <c r="B276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C276">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>216</v>
+      </c>
+      <c r="B277" t="s">
+        <v>263</v>
+      </c>
+      <c r="C277">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>217</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>218</v>
+      </c>
+      <c r="B279" t="s">
+        <v>264</v>
+      </c>
+      <c r="C279">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>219</v>
+      </c>
+      <c r="B280" t="s">
+        <v>264</v>
+      </c>
+      <c r="C280">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>220</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>221</v>
+      </c>
+      <c r="B282" t="s">
+        <v>268</v>
+      </c>
+      <c r="C282">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>222</v>
+      </c>
+      <c r="B283" t="s">
+        <v>297</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>222</v>
+      </c>
+      <c r="B284" t="s">
+        <v>297</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>223</v>
+      </c>
+      <c r="B285" t="s">
+        <v>264</v>
+      </c>
+      <c r="C285">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>223</v>
+      </c>
+      <c r="B286" t="s">
+        <v>264</v>
+      </c>
+      <c r="C286">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>224</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>225</v>
+      </c>
+      <c r="B288" t="s">
+        <v>267</v>
+      </c>
+      <c r="C288">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>226</v>
+      </c>
+      <c r="B289" t="s">
+        <v>268</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>227</v>
+      </c>
+      <c r="B290" t="s">
+        <v>280</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>228</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>229</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>230</v>
+      </c>
+      <c r="B293" t="s">
+        <v>267</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>231</v>
+      </c>
+      <c r="B294" t="s">
+        <v>277</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>232</v>
+      </c>
+      <c r="B295" t="s">
+        <v>267</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>233</v>
+      </c>
+      <c r="B296" t="s">
+        <v>298</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>234</v>
+      </c>
+      <c r="B298" t="s">
+        <v>299</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>234</v>
+      </c>
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>235</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>236</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>237</v>
+      </c>
+      <c r="B303" t="s">
+        <v>276</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>237</v>
+      </c>
+      <c r="B304" t="s">
+        <v>276</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>237</v>
+      </c>
+      <c r="B305" t="s">
+        <v>276</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>238</v>
+      </c>
+      <c r="B306" t="s">
+        <v>267</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>239</v>
+      </c>
+      <c r="B307" t="s">
+        <v>300</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>210</v>
+      </c>
+      <c r="B308" t="s">
+        <v>275</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>240</v>
+      </c>
+      <c r="B309" t="s">
+        <v>288</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>241</v>
+      </c>
+      <c r="B311" t="s">
+        <v>277</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>241</v>
+      </c>
+      <c r="B312" t="s">
+        <v>277</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>237</v>
+      </c>
+      <c r="B313" t="s">
+        <v>276</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>237</v>
+      </c>
+      <c r="B314" t="s">
+        <v>276</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>237</v>
+      </c>
+      <c r="B315" t="s">
+        <v>276</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>242</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>150</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>243</v>
+      </c>
+      <c r="B318" t="s">
+        <v>268</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>244</v>
+      </c>
+      <c r="B319" t="s">
+        <v>301</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>245</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>246</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>247</v>
+      </c>
+      <c r="B323" t="s">
+        <v>264</v>
+      </c>
+      <c r="C323">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>248</v>
+      </c>
+      <c r="B324" t="s">
+        <v>291</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>249</v>
+      </c>
+      <c r="B325" t="s">
+        <v>283</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>249</v>
+      </c>
+      <c r="B326" t="s">
+        <v>283</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>249</v>
+      </c>
+      <c r="B327" t="s">
+        <v>283</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>249</v>
+      </c>
+      <c r="B328" t="s">
+        <v>283</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>250</v>
+      </c>
+      <c r="B329" t="s">
+        <v>264</v>
+      </c>
+      <c r="C329">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>251</v>
+      </c>
+      <c r="B330" t="s">
+        <v>273</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>252</v>
+      </c>
+      <c r="B331" t="s">
+        <v>289</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>253</v>
+      </c>
+      <c r="B332" t="s">
+        <v>277</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>254</v>
+      </c>
+      <c r="B333" t="s">
+        <v>267</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>255</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>256</v>
+      </c>
+      <c r="B335" t="s">
+        <v>264</v>
+      </c>
+      <c r="C335">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>256</v>
+      </c>
+      <c r="B336" t="s">
+        <v>264</v>
+      </c>
+      <c r="C336">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>257</v>
+      </c>
+      <c r="B337" t="s">
+        <v>264</v>
+      </c>
+      <c r="C337">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>218</v>
+      </c>
+      <c r="B338" t="s">
+        <v>264</v>
+      </c>
+      <c r="C338">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>258</v>
+      </c>
+      <c r="B339" t="s">
+        <v>288</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>259</v>
+      </c>
+      <c r="B340" t="s">
+        <v>264</v>
+      </c>
+      <c r="C340">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>259</v>
+      </c>
+      <c r="B341" t="s">
+        <v>264</v>
+      </c>
+      <c r="C341">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>260</v>
+      </c>
+      <c r="B342" t="s">
+        <v>263</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>261</v>
+      </c>
+      <c r="B343" t="s">
+        <v>302</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>262</v>
+      </c>
+      <c r="B344" t="s">
+        <v>277</v>
+      </c>
+      <c r="C344">
         <v>0</v>
       </c>
     </row>

--- a/ChurnedCompaniesWithCallsAndTicketsUpdated.xlsx
+++ b/ChurnedCompaniesWithCallsAndTicketsUpdated.xlsx
@@ -1280,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C344"/>
+  <dimension ref="A1:C388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,9 +1309,6 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1332,7 +1329,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1354,7 +1351,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1365,29 +1362,29 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1398,7 +1395,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1424,9 +1421,6 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
       <c r="B14">
         <v>0</v>
       </c>
@@ -1435,9 +1429,6 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
       <c r="B15">
         <v>0</v>
       </c>
@@ -1454,9 +1445,6 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
       <c r="B17">
         <v>0</v>
       </c>
@@ -1465,9 +1453,6 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
       <c r="B18">
         <v>0</v>
       </c>
@@ -1477,7 +1462,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1495,17 +1480,17 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
       <c r="B22">
         <v>0</v>
       </c>
@@ -1523,7 +1508,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1533,9 +1518,6 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
       <c r="B25">
         <v>0</v>
       </c>
@@ -1544,19 +1526,16 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1567,7 +1546,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1577,6 +1556,9 @@
       </c>
     </row>
     <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
       <c r="B29">
         <v>0</v>
       </c>
@@ -1585,25 +1567,22 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1615,9 +1594,6 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
       <c r="B33">
         <v>0</v>
       </c>
@@ -1627,7 +1603,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1638,26 +1614,29 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>263</v>
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1668,7 +1647,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1678,9 +1657,6 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
       <c r="B39">
         <v>0</v>
       </c>
@@ -1689,16 +1665,19 @@
       </c>
     </row>
     <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1708,9 +1687,6 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
       <c r="B42">
         <v>0</v>
       </c>
@@ -1719,11 +1695,8 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>264</v>
+      <c r="B43">
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1731,7 +1704,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1742,7 +1715,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1753,40 +1726,37 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>265</v>
+      <c r="B47">
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1796,9 +1766,6 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>40</v>
-      </c>
       <c r="B50">
         <v>0</v>
       </c>
@@ -1816,7 +1783,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1826,9 +1793,6 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
       <c r="B53">
         <v>0</v>
       </c>
@@ -1837,6 +1801,9 @@
       </c>
     </row>
     <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
       <c r="B54">
         <v>0</v>
       </c>
@@ -1846,7 +1813,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1857,10 +1824,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>264</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1868,62 +1835,62 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>265</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1934,7 +1901,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1944,19 +1911,16 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>51</v>
-      </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1967,21 +1931,18 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" t="s">
-        <v>266</v>
+      <c r="B67">
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1989,7 +1950,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2000,10 +1961,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" t="s">
-        <v>264</v>
+        <v>44</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2011,40 +1972,37 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" t="s">
-        <v>264</v>
+        <v>45</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>57</v>
-      </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2055,18 +2013,18 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2077,7 +2035,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2087,6 +2045,9 @@
       </c>
     </row>
     <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
       <c r="B77">
         <v>0</v>
       </c>
@@ -2096,43 +2057,43 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" t="s">
-        <v>264</v>
+        <v>51</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2140,29 +2101,32 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="B84">
-        <v>0</v>
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>264</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2170,29 +2134,29 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2203,7 +2167,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2214,7 +2178,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2224,9 +2188,6 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>71</v>
-      </c>
       <c r="B90">
         <v>0</v>
       </c>
@@ -2236,7 +2197,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2246,14 +2207,11 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>65</v>
-      </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2265,9 +2223,6 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>73</v>
-      </c>
       <c r="B94">
         <v>0</v>
       </c>
@@ -2277,10 +2232,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>74</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B95" t="s">
+        <v>264</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2288,16 +2243,19 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>473</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>63</v>
+      </c>
       <c r="B97">
         <v>0</v>
       </c>
@@ -2307,41 +2265,38 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B98" t="s">
+        <v>267</v>
       </c>
       <c r="C98">
-        <v>666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B100" t="s">
+        <v>268</v>
       </c>
       <c r="C100">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>79</v>
-      </c>
       <c r="B101">
         <v>0</v>
       </c>
@@ -2350,9 +2305,6 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>79</v>
-      </c>
       <c r="B102">
         <v>0</v>
       </c>
@@ -2361,9 +2313,6 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>80</v>
-      </c>
       <c r="B103">
         <v>0</v>
       </c>
@@ -2372,6 +2321,9 @@
       </c>
     </row>
     <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>67</v>
+      </c>
       <c r="B104">
         <v>0</v>
       </c>
@@ -2381,19 +2333,16 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>81</v>
-      </c>
-      <c r="B105" t="s">
-        <v>264</v>
+        <v>68</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>82</v>
-      </c>
       <c r="B106">
         <v>0</v>
       </c>
@@ -2403,7 +2352,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2414,21 +2363,21 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>85</v>
-      </c>
-      <c r="B109" t="s">
-        <v>267</v>
+        <v>70</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2436,7 +2385,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2446,6 +2395,9 @@
       </c>
     </row>
     <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>72</v>
+      </c>
       <c r="B111">
         <v>0</v>
       </c>
@@ -2455,40 +2407,37 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>88</v>
-      </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2499,59 +2448,59 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>64</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>91</v>
-      </c>
-      <c r="B117" t="s">
-        <v>268</v>
+      <c r="B117">
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" t="s">
-        <v>268</v>
+        <v>76</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>8</v>
+        <v>666</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>92</v>
-      </c>
-      <c r="B119" t="s">
-        <v>264</v>
+        <v>77</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>78</v>
+      </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2562,30 +2511,27 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>95</v>
-      </c>
-      <c r="B123" t="s">
-        <v>269</v>
+        <v>80</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>96</v>
-      </c>
       <c r="B124">
         <v>0</v>
       </c>
@@ -2595,10 +2541,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>97</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="B125" t="s">
+        <v>264</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2606,16 +2552,19 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" t="s">
-        <v>264</v>
+        <v>82</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>83</v>
+      </c>
       <c r="B127">
         <v>0</v>
       </c>
@@ -2625,18 +2574,21 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="B129">
-        <v>0</v>
+      <c r="A129" t="s">
+        <v>85</v>
+      </c>
+      <c r="B129" t="s">
+        <v>267</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2644,19 +2596,16 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>100</v>
-      </c>
-      <c r="B130" t="s">
-        <v>264</v>
+        <v>86</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>101</v>
-      </c>
       <c r="B131">
         <v>0</v>
       </c>
@@ -2665,6 +2614,9 @@
       </c>
     </row>
     <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>87</v>
+      </c>
       <c r="B132">
         <v>0</v>
       </c>
@@ -2674,29 +2626,29 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>103</v>
-      </c>
-      <c r="B134" t="s">
-        <v>264</v>
+        <v>88</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>1161</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2707,49 +2659,49 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="B137">
-        <v>0</v>
+      <c r="A137" t="s">
+        <v>91</v>
+      </c>
+      <c r="B137" t="s">
+        <v>268</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>106</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B138" t="s">
+        <v>268</v>
       </c>
       <c r="C138">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>107</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B139" t="s">
+        <v>264</v>
       </c>
       <c r="C139">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>108</v>
-      </c>
       <c r="B140">
         <v>0</v>
       </c>
@@ -2759,73 +2711,73 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>109</v>
-      </c>
-      <c r="B141" t="s">
-        <v>270</v>
+        <v>93</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>94</v>
+      </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>112</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="B146" t="s">
+        <v>264</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" t="s">
-        <v>264</v>
+      <c r="B147">
+        <v>0</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2833,21 +2785,18 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>114</v>
-      </c>
-      <c r="B148" t="s">
-        <v>272</v>
+        <v>99</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>115</v>
-      </c>
-      <c r="B149" t="s">
-        <v>264</v>
+      <c r="B149">
+        <v>0</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2855,16 +2804,19 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>116</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="B150" t="s">
+        <v>264</v>
       </c>
       <c r="C150">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>101</v>
+      </c>
       <c r="B151">
         <v>0</v>
       </c>
@@ -2873,9 +2825,6 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>117</v>
-      </c>
       <c r="B152">
         <v>0</v>
       </c>
@@ -2885,7 +2834,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2896,21 +2845,21 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B154" t="s">
         <v>264</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>119</v>
-      </c>
-      <c r="B155" t="s">
-        <v>273</v>
+        <v>104</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2918,13 +2867,13 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2937,29 +2886,29 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -2970,10 +2919,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2989,43 +2938,43 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>125</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="B163" t="s">
+        <v>271</v>
       </c>
       <c r="C163">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>126</v>
-      </c>
-      <c r="B164" t="s">
-        <v>271</v>
+        <v>111</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>128</v>
-      </c>
-      <c r="B166" t="s">
-        <v>275</v>
+        <v>112</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3033,21 +2982,21 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B167" t="s">
         <v>264</v>
       </c>
       <c r="C167">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B168" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3055,10 +3004,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B169" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3066,19 +3015,16 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="C170">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>133</v>
-      </c>
       <c r="B171">
         <v>0</v>
       </c>
@@ -3088,18 +3034,18 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>134</v>
-      </c>
-      <c r="B172" t="s">
-        <v>264</v>
+        <v>117</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3110,27 +3056,30 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>136</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B174" t="s">
+        <v>264</v>
       </c>
       <c r="C174">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B175" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C175">
-        <v>213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>120</v>
+      </c>
       <c r="B176">
         <v>0</v>
       </c>
@@ -3139,11 +3088,8 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>138</v>
-      </c>
-      <c r="B177" t="s">
-        <v>278</v>
+      <c r="B177">
+        <v>0</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3151,10 +3097,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>139</v>
-      </c>
-      <c r="B178" t="s">
-        <v>279</v>
+        <v>121</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3162,21 +3108,21 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>139</v>
-      </c>
-      <c r="B179" t="s">
-        <v>279</v>
+        <v>122</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>139</v>
-      </c>
-      <c r="B180" t="s">
-        <v>279</v>
+        <v>123</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3184,19 +3130,16 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B181" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>141</v>
-      </c>
       <c r="B182">
         <v>0</v>
       </c>
@@ -3206,54 +3149,51 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C184">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>144</v>
-      </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="C185">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>145</v>
-      </c>
-      <c r="B186" t="s">
-        <v>264</v>
+        <v>127</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>146</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="B187" t="s">
+        <v>275</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3261,51 +3201,51 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>147</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="B188" t="s">
+        <v>264</v>
       </c>
       <c r="C188">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>148</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="B189" t="s">
+        <v>276</v>
       </c>
       <c r="C189">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>148</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="B190" t="s">
+        <v>269</v>
       </c>
       <c r="C190">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>149</v>
-      </c>
-      <c r="B191" t="s">
-        <v>269</v>
+        <v>132</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3316,10 +3256,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>151</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B193" t="s">
+        <v>264</v>
       </c>
       <c r="C193">
         <v>123</v>
@@ -3327,10 +3267,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>152</v>
-      </c>
-      <c r="B194" t="s">
-        <v>267</v>
+        <v>135</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3338,54 +3278,45 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>154</v>
-      </c>
-      <c r="B196" t="s">
-        <v>281</v>
+      <c r="B196">
+        <v>0</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>155</v>
-      </c>
-      <c r="B197" t="s">
-        <v>282</v>
+      <c r="B197">
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B198" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>156</v>
-      </c>
-      <c r="B199" t="s">
-        <v>283</v>
+      <c r="B199">
+        <v>0</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3393,18 +3324,21 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B200" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="B201">
-        <v>0</v>
+      <c r="A201" t="s">
+        <v>139</v>
+      </c>
+      <c r="B201" t="s">
+        <v>279</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3412,10 +3346,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3423,10 +3357,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B203" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3434,10 +3368,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>160</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="B204" t="s">
+        <v>264</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3445,10 +3379,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>161</v>
-      </c>
-      <c r="B205" t="s">
-        <v>285</v>
+        <v>141</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3456,18 +3390,21 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>162</v>
-      </c>
-      <c r="B206" t="s">
-        <v>286</v>
+        <v>142</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="B207">
-        <v>0</v>
+      <c r="A207" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" t="s">
+        <v>280</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3475,21 +3412,18 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="C208">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>164</v>
-      </c>
-      <c r="B209" t="s">
-        <v>267</v>
+      <c r="B209">
+        <v>0</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3497,65 +3431,62 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>16</v>
-      </c>
-      <c r="B210">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="B210" t="s">
+        <v>264</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>165</v>
-      </c>
-      <c r="B211" t="s">
-        <v>267</v>
+        <v>146</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
       </c>
       <c r="C211">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>166</v>
-      </c>
-      <c r="B212" t="s">
-        <v>268</v>
+        <v>147</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
       <c r="C213">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>168</v>
-      </c>
-      <c r="B214" t="s">
-        <v>267</v>
+        <v>148</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>169</v>
-      </c>
-      <c r="B215" t="s">
-        <v>283</v>
+      <c r="B215">
+        <v>0</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3563,76 +3494,70 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B216" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>170</v>
-      </c>
-      <c r="B217" t="s">
-        <v>287</v>
+      <c r="B217">
+        <v>0</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>171</v>
-      </c>
-      <c r="B218" t="s">
-        <v>281</v>
+      <c r="B218">
+        <v>0</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>171</v>
-      </c>
-      <c r="B219" t="s">
-        <v>281</v>
+        <v>150</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>171</v>
-      </c>
-      <c r="B220" t="s">
-        <v>281</v>
+        <v>151</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>123</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="B221" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C221">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>172</v>
-      </c>
-      <c r="B222" t="s">
-        <v>288</v>
+        <v>153</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3640,10 +3565,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B223" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3651,59 +3576,62 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B224" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B225" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C225">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="B226">
-        <v>0</v>
+      <c r="A226" t="s">
+        <v>156</v>
+      </c>
+      <c r="B226" t="s">
+        <v>283</v>
       </c>
       <c r="C226">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="B227">
-        <v>0</v>
+      <c r="A227" t="s">
+        <v>157</v>
+      </c>
+      <c r="B227" t="s">
+        <v>284</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>176</v>
-      </c>
       <c r="B228">
         <v>0</v>
       </c>
       <c r="C228">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>177</v>
-      </c>
-      <c r="B229">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="B229" t="s">
+        <v>277</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -3711,18 +3639,18 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>178</v>
-      </c>
-      <c r="B230">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="B230" t="s">
+        <v>285</v>
       </c>
       <c r="C230">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -3733,10 +3661,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B232" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3744,21 +3672,18 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B233" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>181</v>
-      </c>
-      <c r="B234" t="s">
-        <v>264</v>
+      <c r="B234">
+        <v>0</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -3766,21 +3691,21 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>182</v>
-      </c>
-      <c r="B235" t="s">
-        <v>271</v>
+        <v>163</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B236" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -3788,54 +3713,51 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
       <c r="C237">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>185</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="B238" t="s">
+        <v>267</v>
       </c>
       <c r="C238">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B239" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C239">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>187</v>
-      </c>
-      <c r="B240" t="s">
-        <v>292</v>
+        <v>167</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" t="s">
-        <v>187</v>
-      </c>
-      <c r="B241" t="s">
-        <v>292</v>
+      <c r="B241">
+        <v>0</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3843,10 +3765,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B242" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3854,84 +3776,87 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B243" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C243">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B244" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C244">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>190</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="B245" t="s">
+        <v>287</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B246" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B247" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>193</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="B248" t="s">
+        <v>281</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="B249" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="B250">
-        <v>0</v>
+      <c r="A250" t="s">
+        <v>172</v>
+      </c>
+      <c r="B250" t="s">
+        <v>288</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -3939,10 +3864,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B251" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -3950,10 +3875,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B252" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -3961,19 +3886,16 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>197</v>
-      </c>
-      <c r="B253">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="B253" t="s">
+        <v>290</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" t="s">
-        <v>198</v>
-      </c>
       <c r="B254">
         <v>0</v>
       </c>
@@ -3982,11 +3904,8 @@
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" t="s">
-        <v>199</v>
-      </c>
-      <c r="B255" t="s">
-        <v>268</v>
+      <c r="B255">
+        <v>0</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4002,21 +3921,21 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>200</v>
-      </c>
-      <c r="B257" t="s">
-        <v>296</v>
+        <v>176</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>200</v>
-      </c>
-      <c r="B258" t="s">
-        <v>296</v>
+        <v>177</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4024,21 +3943,21 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B259">
         <v>0</v>
       </c>
       <c r="C259">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>202</v>
-      </c>
-      <c r="B260" t="s">
-        <v>290</v>
+        <v>179</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -4046,18 +3965,21 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>203</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="B261" t="s">
+        <v>291</v>
       </c>
       <c r="C261">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="B262">
-        <v>0</v>
+      <c r="A262" t="s">
+        <v>181</v>
+      </c>
+      <c r="B262" t="s">
+        <v>264</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4065,21 +3987,21 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>204</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="B263" t="s">
+        <v>264</v>
       </c>
       <c r="C263">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B264" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4087,10 +4009,10 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B265" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4098,21 +4020,18 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>207</v>
-      </c>
-      <c r="B266" t="s">
-        <v>272</v>
+        <v>184</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" t="s">
-        <v>208</v>
-      </c>
-      <c r="B267" t="s">
-        <v>276</v>
+      <c r="B267">
+        <v>0</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4120,32 +4039,29 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>209</v>
-      </c>
-      <c r="B268" t="s">
-        <v>268</v>
+        <v>185</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" t="s">
-        <v>210</v>
-      </c>
-      <c r="B270" t="s">
-        <v>275</v>
+      <c r="B270">
+        <v>0</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4153,18 +4069,21 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>211</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="B271" t="s">
+        <v>292</v>
       </c>
       <c r="C271">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="B272">
-        <v>0</v>
+      <c r="A272" t="s">
+        <v>187</v>
+      </c>
+      <c r="B272" t="s">
+        <v>292</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4172,10 +4091,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B273" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4183,109 +4102,106 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>214</v>
-      </c>
-      <c r="B275">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="B275" t="s">
+        <v>264</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>215</v>
-      </c>
-      <c r="B276" t="s">
-        <v>264</v>
+        <v>190</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
       </c>
       <c r="C276">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="B277" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="C277">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>217</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="B278" t="s">
+        <v>294</v>
       </c>
       <c r="C278">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>218</v>
-      </c>
-      <c r="B279" t="s">
-        <v>264</v>
+        <v>193</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
       </c>
       <c r="C279">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B280" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C280">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" t="s">
-        <v>220</v>
-      </c>
       <c r="B281">
         <v>0</v>
       </c>
       <c r="C281">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B282" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C282">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B283" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -4293,10 +4209,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>222</v>
-      </c>
-      <c r="B284" t="s">
-        <v>297</v>
+        <v>197</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -4304,54 +4220,51 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>223</v>
-      </c>
-      <c r="B285" t="s">
-        <v>264</v>
+        <v>198</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
       </c>
       <c r="C285">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B286" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C286">
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" t="s">
-        <v>224</v>
-      </c>
       <c r="B287">
         <v>0</v>
       </c>
       <c r="C287">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B288" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="C288">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B289" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -4359,30 +4272,27 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>227</v>
-      </c>
-      <c r="B290" t="s">
-        <v>280</v>
+        <v>201</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>228</v>
-      </c>
-      <c r="B291">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="B291" t="s">
+        <v>290</v>
       </c>
       <c r="C291">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" t="s">
-        <v>229</v>
-      </c>
       <c r="B292">
         <v>0</v>
       </c>
@@ -4391,11 +4301,8 @@
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" t="s">
-        <v>230</v>
-      </c>
-      <c r="B293" t="s">
-        <v>267</v>
+      <c r="B293">
+        <v>0</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -4403,21 +4310,18 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>231</v>
-      </c>
-      <c r="B294" t="s">
-        <v>277</v>
+        <v>203</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" t="s">
-        <v>232</v>
-      </c>
-      <c r="B295" t="s">
-        <v>267</v>
+      <c r="B295">
+        <v>0</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4425,29 +4329,29 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>233</v>
-      </c>
-      <c r="B296" t="s">
-        <v>298</v>
+        <v>204</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="B297">
-        <v>0</v>
+      <c r="A297" t="s">
+        <v>205</v>
+      </c>
+      <c r="B297" t="s">
+        <v>282</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" t="s">
-        <v>234</v>
-      </c>
-      <c r="B298" t="s">
-        <v>299</v>
+      <c r="B298">
+        <v>0</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4455,10 +4359,10 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4466,19 +4370,16 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>235</v>
-      </c>
-      <c r="B300">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="B300" t="s">
+        <v>272</v>
       </c>
       <c r="C300">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" t="s">
-        <v>236</v>
-      </c>
       <c r="B301">
         <v>0</v>
       </c>
@@ -4487,8 +4388,11 @@
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="B302">
-        <v>0</v>
+      <c r="A302" t="s">
+        <v>208</v>
+      </c>
+      <c r="B302" t="s">
+        <v>276</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4496,10 +4400,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B303" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -4507,10 +4411,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B304" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -4518,10 +4422,10 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="B305" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -4529,32 +4433,26 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>238</v>
-      </c>
-      <c r="B306" t="s">
-        <v>267</v>
+        <v>211</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" t="s">
-        <v>239</v>
-      </c>
-      <c r="B307" t="s">
-        <v>300</v>
+      <c r="B307">
+        <v>0</v>
       </c>
       <c r="C307">
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" t="s">
-        <v>210</v>
-      </c>
-      <c r="B308" t="s">
-        <v>275</v>
+      <c r="B308">
+        <v>0</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -4562,18 +4460,21 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B309" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="C309">
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="B310">
-        <v>0</v>
+      <c r="A310" t="s">
+        <v>213</v>
+      </c>
+      <c r="B310" t="s">
+        <v>273</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -4581,10 +4482,10 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>241</v>
-      </c>
-      <c r="B311" t="s">
-        <v>277</v>
+        <v>214</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -4592,87 +4493,87 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B312" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C312">
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B313" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C313">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>237</v>
-      </c>
-      <c r="B314" t="s">
-        <v>276</v>
+        <v>217</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
       </c>
       <c r="C314">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B315" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C315">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>242</v>
-      </c>
-      <c r="B316">
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="B316" t="s">
+        <v>264</v>
       </c>
       <c r="C316">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="B317">
         <v>0</v>
       </c>
       <c r="C317">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B318" t="s">
         <v>268</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B319" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -4680,19 +4581,16 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>245</v>
-      </c>
-      <c r="B320">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="B320" t="s">
+        <v>297</v>
       </c>
       <c r="C320">
         <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" t="s">
-        <v>246</v>
-      </c>
       <c r="B321">
         <v>0</v>
       </c>
@@ -4701,52 +4599,55 @@
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="B322">
-        <v>0</v>
+      <c r="A322" t="s">
+        <v>223</v>
+      </c>
+      <c r="B322" t="s">
+        <v>264</v>
       </c>
       <c r="C322">
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B323" t="s">
         <v>264</v>
       </c>
       <c r="C323">
-        <v>85</v>
+        <v>296</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>248</v>
-      </c>
-      <c r="B324" t="s">
-        <v>291</v>
+        <v>224</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B325" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B326" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -4754,10 +4655,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B327" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -4765,43 +4666,40 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>249</v>
-      </c>
-      <c r="B328" t="s">
-        <v>283</v>
+        <v>228</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
       </c>
       <c r="C328">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>250</v>
-      </c>
-      <c r="B329" t="s">
-        <v>264</v>
+        <v>229</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
       </c>
       <c r="C329">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B330" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C330">
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" t="s">
-        <v>252</v>
-      </c>
-      <c r="B331" t="s">
-        <v>289</v>
+      <c r="B331">
+        <v>0</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -4809,7 +4707,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B332" t="s">
         <v>277</v>
@@ -4820,7 +4718,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B333" t="s">
         <v>267</v>
@@ -4831,98 +4729,86 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>255</v>
-      </c>
-      <c r="B334">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="B334" t="s">
+        <v>298</v>
       </c>
       <c r="C334">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" t="s">
-        <v>256</v>
-      </c>
-      <c r="B335" t="s">
-        <v>264</v>
+      <c r="B335">
+        <v>0</v>
       </c>
       <c r="C335">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B336" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="C336">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="B337" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="C337">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" t="s">
-        <v>218</v>
-      </c>
-      <c r="B338" t="s">
-        <v>264</v>
+      <c r="B338">
+        <v>0</v>
       </c>
       <c r="C338">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>258</v>
-      </c>
-      <c r="B339" t="s">
-        <v>288</v>
+        <v>235</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>259</v>
-      </c>
-      <c r="B340" t="s">
-        <v>264</v>
+        <v>236</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
       </c>
       <c r="C340">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" t="s">
-        <v>259</v>
-      </c>
-      <c r="B341" t="s">
-        <v>264</v>
+      <c r="B341">
+        <v>0</v>
       </c>
       <c r="C341">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" t="s">
-        <v>260</v>
-      </c>
-      <c r="B342" t="s">
-        <v>263</v>
+      <c r="B342">
+        <v>0</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -4930,10 +4816,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B343" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -4941,12 +4827,478 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
+        <v>237</v>
+      </c>
+      <c r="B344" t="s">
+        <v>276</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>237</v>
+      </c>
+      <c r="B345" t="s">
+        <v>276</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>238</v>
+      </c>
+      <c r="B346" t="s">
+        <v>267</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>239</v>
+      </c>
+      <c r="B347" t="s">
+        <v>300</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>210</v>
+      </c>
+      <c r="B348" t="s">
+        <v>275</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>240</v>
+      </c>
+      <c r="B349" t="s">
+        <v>288</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>241</v>
+      </c>
+      <c r="B352" t="s">
+        <v>277</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>241</v>
+      </c>
+      <c r="B353" t="s">
+        <v>277</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>237</v>
+      </c>
+      <c r="B354" t="s">
+        <v>276</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>237</v>
+      </c>
+      <c r="B355" t="s">
+        <v>276</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>237</v>
+      </c>
+      <c r="B356" t="s">
+        <v>276</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>242</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>150</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>243</v>
+      </c>
+      <c r="B359" t="s">
+        <v>268</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>244</v>
+      </c>
+      <c r="B360" t="s">
+        <v>301</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>245</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>246</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>247</v>
+      </c>
+      <c r="B365" t="s">
+        <v>264</v>
+      </c>
+      <c r="C365">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>248</v>
+      </c>
+      <c r="B366" t="s">
+        <v>291</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>249</v>
+      </c>
+      <c r="B367" t="s">
+        <v>283</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>249</v>
+      </c>
+      <c r="B368" t="s">
+        <v>283</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>249</v>
+      </c>
+      <c r="B369" t="s">
+        <v>283</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>249</v>
+      </c>
+      <c r="B370" t="s">
+        <v>283</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>250</v>
+      </c>
+      <c r="B371" t="s">
+        <v>264</v>
+      </c>
+      <c r="C371">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>251</v>
+      </c>
+      <c r="B372" t="s">
+        <v>273</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>252</v>
+      </c>
+      <c r="B373" t="s">
+        <v>289</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>253</v>
+      </c>
+      <c r="B374" t="s">
+        <v>277</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>254</v>
+      </c>
+      <c r="B375" t="s">
+        <v>267</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>255</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>256</v>
+      </c>
+      <c r="B379" t="s">
+        <v>264</v>
+      </c>
+      <c r="C379">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>256</v>
+      </c>
+      <c r="B380" t="s">
+        <v>264</v>
+      </c>
+      <c r="C380">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>257</v>
+      </c>
+      <c r="B381" t="s">
+        <v>264</v>
+      </c>
+      <c r="C381">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>218</v>
+      </c>
+      <c r="B382" t="s">
+        <v>264</v>
+      </c>
+      <c r="C382">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>258</v>
+      </c>
+      <c r="B383" t="s">
+        <v>288</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>259</v>
+      </c>
+      <c r="B384" t="s">
+        <v>264</v>
+      </c>
+      <c r="C384">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>259</v>
+      </c>
+      <c r="B385" t="s">
+        <v>264</v>
+      </c>
+      <c r="C385">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>260</v>
+      </c>
+      <c r="B386" t="s">
+        <v>263</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>261</v>
+      </c>
+      <c r="B387" t="s">
+        <v>302</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
         <v>262</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B388" t="s">
         <v>277</v>
       </c>
-      <c r="C344">
+      <c r="C388">
         <v>0</v>
       </c>
     </row>
